--- a/data/trans_dic/P25A$rendimiento-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$rendimiento-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,22 +686,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,48</t>
+          <t>0,75; 6,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 11,68</t>
+          <t>4,11; 11,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 14,55</t>
+          <t>3,29; 13,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 17,91</t>
+          <t>2,03; 16,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,22 +711,22 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,17</t>
+          <t>0,0; 9,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 7,27</t>
+          <t>1,16; 7,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,69</t>
+          <t>2,67; 8,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,99</t>
+          <t>2,74; 10,02</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 8,93</t>
+          <t>2,14; 8,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,07</t>
+          <t>0,42; 3,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 7,15</t>
+          <t>1,14; 7,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,06</t>
+          <t>0,0; 7,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 12,52</t>
+          <t>2,2; 11,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,94</t>
+          <t>1,06; 9,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,58</t>
+          <t>1,92; 6,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,99</t>
+          <t>1,19; 4,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,49</t>
+          <t>1,53; 6,33</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 5,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,28</t>
+          <t>1,14; 6,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 8,26</t>
+          <t>0,76; 7,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,27; 20,28</t>
+          <t>2,34; 20,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 8,48</t>
+          <t>0,93; 8,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 12,43</t>
+          <t>1,38; 12,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 6,85</t>
+          <t>1,09; 6,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 5,36</t>
+          <t>1,45; 5,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,41</t>
+          <t>1,92; 7,4</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 6,76</t>
+          <t>1,46; 6,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 8,36</t>
+          <t>1,86; 8,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,68</t>
+          <t>3,59; 10,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,72</t>
+          <t>2,13; 12,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 9,3</t>
+          <t>0,85; 9,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 12,26</t>
+          <t>2,6; 12,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 6,77</t>
+          <t>2,12; 7,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,98</t>
+          <t>2,05; 6,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,73</t>
+          <t>4,06; 9,62</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,81</t>
+          <t>2,1; 4,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,33</t>
+          <t>2,44; 5,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,01</t>
+          <t>3,62; 7,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,81; 8,19</t>
+          <t>2,93; 8,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,98</t>
+          <t>1,78; 5,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,92; 7,62</t>
+          <t>2,86; 7,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,1</t>
+          <t>2,66; 5,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 4,93</t>
+          <t>2,56; 4,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,53</t>
+          <t>3,75; 6,54</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, la disminución del rendimiento</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3012</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13310</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8905</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2839</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5851</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13310</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9879</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>969; 8048</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7752; 21106</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3884; 16208</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>840; 6884</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2000</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4948</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1975; 12072</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6971; 21845</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>4721; 17243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8976</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3318</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5662</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1146</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5583</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3700</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10121</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>8901</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9363</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4001; 15855</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1036; 9100</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2014; 13157</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6083</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2167; 11716</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>915; 8403</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5072; 18433</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>4135; 16415</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4032; 16676</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2037</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5127</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4396</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3587</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5624</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8208</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8423</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6939</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1972; 10609</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1018; 10647</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>930; 8284</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>959; 8321</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1030; 9283</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1896; 11223</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3998; 15934</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4006; 15403</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5958</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8661</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11421</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>5073</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3723</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7406</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11031</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>12384</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18826</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2533; 11021</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3836; 16653</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6339; 19130</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1973; 11721</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>964; 11281</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3153; 14706</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5647; 18683</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6532; 20995</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>12085; 28639</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19983</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>30416</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30384</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>12643</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16107</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32626</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>42803</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>46491</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13128; 30466</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>19923; 42768</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21916; 44924</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7348; 21121</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6864; 21879</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9618; 25014</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>23317; 43831</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>30754; 58175</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>35259; 61580</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>